--- a/CMAP_GRUMP_metadata/grump_GA03_GA13_cmap_submission.xlsx
+++ b/CMAP_GRUMP_metadata/grump_GA03_GA13_cmap_submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nwilliams/Dropbox/USC/Projects/grump.data/metadata/CMAP_GRUMP_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanwilliams/Library/CloudStorage/Dropbox/USC/Projects/grump.data/metadata/CMAP_GRUMP_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C81564-3BF9-A340-B2A1-4A55A8940A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A67FF9-FDAA-074B-9B22-12394C75379D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="800" windowWidth="30660" windowHeight="18700" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34280" yWindow="-3320" windowWidth="30660" windowHeight="18700" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="152">
   <si>
     <t>time</t>
   </si>
@@ -476,6 +476,24 @@
   </si>
   <si>
     <t>Cruise Station, eachlat/long given a unique number</t>
+  </si>
+  <si>
+    <t>Longhurst_Long</t>
+  </si>
+  <si>
+    <t>Longhurst province sample was taken in.</t>
+  </si>
+  <si>
+    <t>Longhurst_Short</t>
+  </si>
+  <si>
+    <t>Longhurst province sample was taken in, shortened code.</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Season sample was taken in.</t>
   </si>
 </sst>
 </file>
@@ -3165,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC972"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4275,9 +4293,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
